--- a/source_analyses/dk/2015/2_pp_hp/dk_2015_wind_and solar_statistics.xlsx
+++ b/source_analyses/dk/2015/2_pp_hp/dk_2015_wind_and solar_statistics.xlsx
@@ -1,25 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martlubben/Projects/etdataset/source_analyses/dk/2015/2_pp_hp/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3785DCE9-6472-8E48-B566-81F0A626AD72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="2940" windowWidth="26040" windowHeight="14560" activeTab="1" xr2:uid="{2F78FF5F-FD79-DD4F-B1D4-ED4501350C92}"/>
+    <workbookView xWindow="48000" yWindow="-3160" windowWidth="19200" windowHeight="20080" xr2:uid="{2F78FF5F-FD79-DD4F-B1D4-ED4501350C92}"/>
   </bookViews>
   <sheets>
-    <sheet name="Wind Energinet An.assump 2017" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Dashboard inputs" sheetId="1" r:id="rId3"/>
+    <sheet name="Dashboard inputs" sheetId="1" r:id="rId1"/>
+    <sheet name="Wind Energinet An.assump 2017" sheetId="2" r:id="rId2"/>
+    <sheet name="Solar analysis" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -248,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="159">
   <si>
     <t>near shore</t>
   </si>
@@ -664,13 +670,67 @@
     <t>All values logged at the beginning of the year. Reference: Solar cells and batteries in Denmark [Solceller og batterier i Danmark] (Energinet, 2016).</t>
   </si>
   <si>
-    <t>From: Energinet Analysis assumptions 2017</t>
-  </si>
-  <si>
     <t>Split</t>
   </si>
   <si>
-    <t>Split 2015 (based on 2017)</t>
+    <t>Capacity Split 2015 (based on 2017)</t>
+  </si>
+  <si>
+    <t>Full-load hours</t>
+  </si>
+  <si>
+    <t>Household units</t>
+  </si>
+  <si>
+    <t>Commercial units</t>
+  </si>
+  <si>
+    <t>From: Energinet Analysis Assumptions 2017</t>
+  </si>
+  <si>
+    <t>Main activity</t>
+  </si>
+  <si>
+    <t>Autoproducer</t>
+  </si>
+  <si>
+    <t>Atoproducer capacity</t>
+  </si>
+  <si>
+    <t>Main activity capacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GW </t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>Energinet</t>
+  </si>
+  <si>
+    <t>Own calculation</t>
+  </si>
+  <si>
+    <t>From corrected energy balnce after solar split, see solar split xls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">full load hours </t>
+  </si>
+  <si>
+    <t>Solar PV, large scale, main activity</t>
+  </si>
+  <si>
+    <t>Solar PV in household sector</t>
+  </si>
+  <si>
+    <t>Solar PV in services sector</t>
+  </si>
+  <si>
+    <t>Concentrated solar power, main activity</t>
+  </si>
+  <si>
+    <t>default value, not relevant</t>
   </si>
 </sst>
 </file>
@@ -877,7 +937,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -925,8 +985,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -962,6 +1028,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -969,7 +1080,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1128,20 +1239,28 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="28" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
@@ -1273,6 +1392,76 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E3DAC86-98F0-3646-A159-0E73FF37E535}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="241300" y="25400"/>
+          <a:ext cx="7658100" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>- The solar data is contradicting. The full load hours of Energinet are not matching the full load hours we have calculated here. Needs revision. We have now chosen to let the full load hours and the energy from the energy balance (and our solar split) be leading which results in a lower installed capacity of 711 MW istead of 782. </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1574,11 +1763,175 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37432F20-C93A-6249-96B4-3D7CC5951FA3}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="84">
+        <f>'Wind Energinet An.assump 2017'!D172</f>
+        <v>382.15999999999997</v>
+      </c>
+      <c r="D2" s="94">
+        <f>C2/$C$5</f>
+        <v>2.638975297272201E-2</v>
+      </c>
+      <c r="F2" s="84">
+        <f>'Wind Energinet An.assump 2017'!D66</f>
+        <v>124.6</v>
+      </c>
+      <c r="G2" s="97">
+        <f>C2/(F2/1000)</f>
+        <v>3067.0947030497591</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="84">
+        <f>'Wind Energinet An.assump 2017'!D209</f>
+        <v>4717.76</v>
+      </c>
+      <c r="D3" s="95">
+        <f>C3/$C$5</f>
+        <v>0.32578114136641462</v>
+      </c>
+      <c r="F3" s="84">
+        <f>'Wind Energinet An.assump 2017'!D89</f>
+        <v>1141.5</v>
+      </c>
+      <c r="G3" s="98">
+        <f t="shared" ref="G3:G4" si="0">C3/(F3/1000)</f>
+        <v>4132.9478756022781</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="84">
+        <f>'Wind Energinet An.assump 2017'!D124</f>
+        <v>9381.4584500000001</v>
+      </c>
+      <c r="D4" s="96">
+        <f>C4/$C$5</f>
+        <v>0.64782910566086338</v>
+      </c>
+      <c r="F4" s="84">
+        <f>'Wind Energinet An.assump 2017'!D38</f>
+        <v>3974.0410000000002</v>
+      </c>
+      <c r="G4" s="99">
+        <f t="shared" si="0"/>
+        <v>2360.6848671163684</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <f>SUM(C2:C4)</f>
+        <v>14481.37845</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="86" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="100">
+        <f>'Solar analysis'!D29</f>
+        <v>1140.5999166426793</v>
+      </c>
+      <c r="F11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" s="101">
+        <f>'Solar analysis'!D27</f>
+        <v>806.84860562507265</v>
+      </c>
+      <c r="F12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" s="101">
+        <f>'Solar analysis'!D27</f>
+        <v>806.84860562507265</v>
+      </c>
+      <c r="F13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14" s="99">
+        <v>867</v>
+      </c>
+      <c r="F14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E70439-A6E4-BF42-9A29-C68E8F69FEB5}">
   <dimension ref="A1:D421"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="B300" sqref="B300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5198,12 +5551,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1777A63E-B6B4-8441-A3E5-9C378EAC8175}">
-  <dimension ref="B11:L35"/>
+  <dimension ref="B11:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I18" sqref="H18:I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5225,7 +5578,7 @@
         <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
@@ -5263,7 +5616,10 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="D19" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
@@ -5293,203 +5649,203 @@
         <v>231.17363558944959</v>
       </c>
     </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" s="86" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B26" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="89">
+        <f>C$6</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="J27" s="8" t="s">
+      <c r="B27" s="87" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="90">
+        <v>806.84860562507265</v>
+      </c>
+      <c r="E27">
+        <f>C36/C38</f>
+        <v>906.83386321664682</v>
+      </c>
+      <c r="J27" s="88" t="s">
         <v>131</v>
       </c>
-      <c r="K27" s="8"/>
-      <c r="L27" s="88">
+      <c r="K27" s="88"/>
+      <c r="L27" s="91">
         <v>2017</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="J28" t="s">
+      <c r="B28" s="87" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="90">
+        <v>1041.3200023580725</v>
+      </c>
+      <c r="J28" s="87" t="s">
         <v>132</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="L28" s="89">
+      <c r="L28" s="90">
         <v>460.52354923505061</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="J29" t="s">
+      <c r="B29" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="90">
+        <v>1140.5999166426793</v>
+      </c>
+      <c r="E29">
+        <f>C35/C37</f>
+        <v>452.00656092795754</v>
+      </c>
+      <c r="J29" s="87" t="s">
         <v>133</v>
       </c>
-      <c r="K29" s="90" t="s">
+      <c r="K29" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="L29" s="89">
+      <c r="L29" s="90">
         <v>4.0498507643307606</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="J30" t="s">
+      <c r="B30" t="s">
+        <v>143</v>
+      </c>
+      <c r="J30" s="87" t="s">
         <v>134</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="L30" s="89">
+      <c r="L30" s="90">
         <v>132.5819268553762</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="J31" t="s">
+      <c r="J31" s="87" t="s">
         <v>135</v>
       </c>
-      <c r="K31" s="90" t="s">
+      <c r="K31" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="L31" s="89">
+      <c r="L31" s="90">
         <v>3.1220731446248622</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="J32" t="s">
+      <c r="J32" s="87" t="s">
         <v>136</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="L32" s="89">
+      <c r="L32" s="90">
         <v>251.92750000000103</v>
       </c>
     </row>
-    <row r="33" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J33" s="91" t="s">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J33" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="91" t="s">
+      <c r="K33" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="L33" s="92">
+      <c r="L33" s="91">
         <f>SUM(L28:L32)</f>
         <v>852.20489999938343</v>
       </c>
     </row>
-    <row r="34" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B34" s="86" t="s">
+        <v>152</v>
+      </c>
       <c r="J34" s="93" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="35" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="K34" s="87"/>
+      <c r="L34" s="87"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35">
+        <v>104.492</v>
+      </c>
+      <c r="D35" t="s">
+        <v>90</v>
+      </c>
       <c r="J35" t="s">
-        <v>138</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36">
+        <v>499.50799999999998</v>
+      </c>
+      <c r="D36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37">
+        <f>D22/1000</f>
+        <v>0.23117363558944959</v>
+      </c>
+      <c r="D37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38">
+        <f>SUM(D20:D21)/1000</f>
+        <v>0.55082636441055044</v>
+      </c>
+      <c r="D38" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37432F20-C93A-6249-96B4-3D7CC5951FA3}">
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="7" max="7" width="37" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="87" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="84">
-        <f>'Wind Energinet An.assump 2017'!D172</f>
-        <v>382.15999999999997</v>
-      </c>
-      <c r="D2" s="86">
-        <f>C2/$C$5</f>
-        <v>2.638975297272201E-2</v>
-      </c>
-      <c r="F2" s="84">
-        <f>'Wind Energinet An.assump 2017'!D66</f>
-        <v>124.6</v>
-      </c>
-      <c r="G2">
-        <f>C2/(F2/1000)</f>
-        <v>3067.0947030497591</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="84">
-        <f>'Wind Energinet An.assump 2017'!D209</f>
-        <v>4717.76</v>
-      </c>
-      <c r="D3" s="86">
-        <f>C3/$C$5</f>
-        <v>0.32578114136641462</v>
-      </c>
-      <c r="F3" s="84">
-        <f>'Wind Energinet An.assump 2017'!D89</f>
-        <v>1141.5</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G4" si="0">C3/(F3/1000)</f>
-        <v>4132.9478756022781</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="84">
-        <f>'Wind Energinet An.assump 2017'!D124</f>
-        <v>9381.4584500000001</v>
-      </c>
-      <c r="D4" s="86">
-        <f>C4/$C$5</f>
-        <v>0.64782910566086338</v>
-      </c>
-      <c r="F4" s="84">
-        <f>'Wind Energinet An.assump 2017'!D38</f>
-        <v>3974.0410000000002</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>2360.6848671163684</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C5">
-        <f>SUM(C2:C4)</f>
-        <v>14481.37845</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="87" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>